--- a/adres.xlsx
+++ b/adres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beyter\Desktop\api\yandex-geocoder-sandbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beyter\Desktop\api\YandexGecoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF7164-600F-4FDA-81DA-994237C7BCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC72D6-FFA8-473C-8620-0102F5438CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Göztepe Mh. Bahariyeli Sk.  No:4 Kadıköy İstanbul</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>adres</t>
+  </si>
+  <si>
+    <t>50. yıl Mah B cad. no 54 Sultangazi/İstanbul</t>
+  </si>
+  <si>
+    <t>Prof. Baki Komşuoğlu Bulv. Umuttepe Yerleşkesi No: 515/FG</t>
+  </si>
+  <si>
+    <t>Kabaoğlu, Baki Komsuoğlu bulvarı No:515, Umuttepe, 41001 İzmit/Kocaeli</t>
   </si>
 </sst>
 </file>
@@ -357,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -386,12 +395,22 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
